--- a/dataset/score/bhaskara.xlsx
+++ b/dataset/score/bhaskara.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -577,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J8" t="n">
         <v>0.25</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J9" t="n">
         <v>0.75</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J15" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.6849999999999999</v>
+        <v>0.6353571428571428</v>
       </c>
       <c r="G23" t="n">
         <v>0.75</v>
@@ -1537,7 +1537,7 @@
         <v>0.9625</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7125</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="J23" t="n">
         <v>0.5</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
         <v>0.75</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.45</v>
+        <v>0.4046428571428572</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1825,7 +1825,7 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5125</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J29" t="n">
         <v>0.25</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J44" t="n">
         <v>0.5</v>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J45" t="n">
         <v>0.75</v>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8952380952380953</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J49" t="n">
         <v>0.5</v>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J58" t="n">
         <v>0.75</v>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.5333333333333334</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3265,7 +3265,7 @@
         <v>-0.01190476190476186</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="J59" t="n">
         <v>0.5</v>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J62" t="n">
         <v>0.25</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J64" t="n">
         <v>0.5</v>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J65" t="n">
         <v>0.75</v>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.4619047619047619</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3601,7 +3601,7 @@
         <v>-0.01190476190476186</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J66" t="n">
         <v>0.25</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.7975</v>
       </c>
       <c r="G76" t="n">
         <v>0.75</v>
@@ -4081,7 +4081,7 @@
         <v>0.9875</v>
       </c>
       <c r="I76" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="J76" t="n">
         <v>0.75</v>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.8975</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4321,10 +4321,10 @@
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J83" t="n">
         <v>0.75</v>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J84" t="n">
         <v>0.75</v>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.62</v>
+        <v>0.6046428571428571</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5041,7 +5041,7 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I96" t="n">
-        <v>0.8625</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J96" t="n">
         <v>0.25</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J97" t="n">
         <v>0.25</v>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.5428571428571429</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5137,7 +5137,7 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5119047619047619</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J99" t="n">
         <v>0.75</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6309523809523809</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5233,7 +5233,7 @@
         <v>0.9761904761904762</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J100" t="n">
         <v>0.25</v>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.6849999999999999</v>
+        <v>0.7832142857142858</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5329,10 +5329,10 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9375</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J102" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>1</v>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K105" t="n">
         <v>0.75</v>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J108" t="n">
         <v>0.5</v>

--- a/dataset/score/bhaskara.xlsx
+++ b/dataset/score/bhaskara.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J15" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K17" t="n">
         <v>0.75</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1531,16 +1531,16 @@
         <v>0.6353571428571428</v>
       </c>
       <c r="G23" t="n">
-        <v>0.75</v>
+        <v>0.9625</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0.4642857142857143</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K23" t="n">
         <v>0.5</v>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.4046428571428572</v>
+        <v>0.604642857142857</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0.2857142857142857</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K34" t="n">
         <v>0.75</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -3256,13 +3256,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.5047619047619047</v>
+        <v>0.7047619047619047</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.01190476190476186</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0.5357142857142857</v>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J62" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J65" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -3592,13 +3592,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.4190476190476191</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.01190476190476186</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0.3571428571428572</v>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -4072,13 +4072,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.7975</v>
+        <v>0.8474999999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>0.75</v>
+        <v>0.9875</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0.75</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J81" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4756,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.6046428571428571</v>
+        <v>0.8046428571428571</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0.7857142857142857</v>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5092,7 +5092,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J97" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -5131,10 +5131,10 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0.1785714285714286</v>
@@ -5227,10 +5227,10 @@
         <v>0.6309523809523809</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9761904761904762</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0.4285714285714285</v>
@@ -5320,13 +5320,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.7832142857142858</v>
+        <v>0.9832142857142857</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0.9285714285714286</v>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
         <v>0.75</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5620,7 +5620,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J108" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
